--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_5_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_5_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.05122036882246e-16</v>
+        <v>1.820037745287142e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.71004770239722</v>
+        <v>47.36189377814651</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.57085220631528, 55.84924319847916]</t>
+          <t>[39.760234405061645, 54.96355315123137]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.591237119836272</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 1.7421845146033492]</t>
+          <t>[1.2893423303021176, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.93742932232875</v>
+        <v>60.37232774251761</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.1370670316282, 65.73779161302929]</t>
+          <t>[55.55797159906223, 65.18668388597298]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.12354354354381</v>
+        <v>18.60176176176203</v>
       </c>
       <c r="X2" t="n">
-        <v>17.54048048048073</v>
+        <v>17.92180180180206</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.70660660660688</v>
+        <v>19.281721721722</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.05122036882246e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.820037745287142e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5373576599000143</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.92509233018414</v>
+        <v>49.24542089406816</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.29931434790658, 60.550870312461704]</t>
+          <t>[38.03498343471918, 60.45585835341714]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.402579366709311</v>
+        <v>2.408868841491272</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6164215092960035, -2.188737224122619]</t>
+          <t>[2.182447749340657, 2.6352899336418876]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.51466506392573</v>
+        <v>67.55062840906882</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.9885760176833, 69.04075411016815]</t>
+          <t>[61.8626790305013, 73.23857778763634]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.720160160160365</v>
+        <v>15.35375375375404</v>
       </c>
       <c r="X3" t="n">
-        <v>8.855015015015203</v>
+        <v>14.45645645645672</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.58530530530553</v>
+        <v>16.25105105105135</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_5_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_5_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.820037745287142e-16</v>
+        <v>2.187631575616072e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.36189377814651</v>
+        <v>45.19494919013368</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.760234405061645, 54.96355315123137]</t>
+          <t>[37.712445312742446, 52.67745306752491]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.465447624197041</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2893423303021176, 1.6415529180919641]</t>
+          <t>[1.402552876377424, 1.7547634641672722]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.37232774251761</v>
+        <v>65.3810144422782</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.55797159906223, 65.18668388597298]</t>
+          <t>[60.380986837542146, 70.38104204701426]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.60176176176203</v>
+        <v>18.25449449449478</v>
       </c>
       <c r="X2" t="n">
-        <v>17.92180180180206</v>
+        <v>17.57117117117144</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.281721721722</v>
+        <v>18.93781781781811</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,32 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.820037745287142e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5373576599000143</v>
-      </c>
+        <v>2.187631575616072e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.24542089406816</v>
+        <v>45.46467458600917</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.03498343471918, 60.45585835341714]</t>
+          <t>[36.85905458690856, 54.07029458510977]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.408868841491272</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.182447749340657, 2.6352899336418876]</t>
+          <t>[2.9120268240481963, 3.339711109221582]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>67.55062840906882</v>
+        <v>65.37494119856456</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[61.8626790305013, 73.23857778763634]</t>
+          <t>[59.54756104421429, 71.20232135291482]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.35375375375404</v>
+        <v>12.63291291291316</v>
       </c>
       <c r="X3" t="n">
-        <v>14.45645645645672</v>
+        <v>11.77729729729753</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.25105105105135</v>
+        <v>13.48852852852879</v>
       </c>
     </row>
   </sheetData>
